--- a/Documentación PFFE/Proyecto_Final.xlsx
+++ b/Documentación PFFE/Proyecto_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\Documentación PFFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6186FB8C-338A-423D-818D-812E4CE79E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB13AC6-2793-46E6-B347-B548B42FC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{17E0DE3F-BADC-4A6D-9F3F-7D249792D3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Fecha</t>
   </si>
@@ -240,6 +240,45 @@
   </si>
   <si>
     <t>src/App.jsx, src/components/Home.jsx, src/components/CountryList.jsx, src/components/CountryDetail.jsx, src/components/About.jsx</t>
+  </si>
+  <si>
+    <t>Corrección de filtro de búsqueda</t>
+  </si>
+  <si>
+    <t>Mejora en la funcionalidad del filtro de búsqueda para incluir la capital del país en el criterio de búsqueda.</t>
+  </si>
+  <si>
+    <t>La búsqueda ahora considera tanto el nombre como la capital del país.</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en CountryList</t>
+  </si>
+  <si>
+    <t>Añadido un botón para regresar a la lista de países desde la vista de detalles de país.</t>
+  </si>
+  <si>
+    <t>Facilita la navegación desde el detalle del país a la lista de países.</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en CountryDetail</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en NotFound</t>
+  </si>
+  <si>
+    <t>Añadido un botón para regresar a la página de inicio desde la vista de "Página No Encontrada".</t>
+  </si>
+  <si>
+    <t>Proporciona una forma de regresar a la página principal desde "No Encontrado".</t>
+  </si>
+  <si>
+    <t>Corrección de Errores</t>
+  </si>
+  <si>
+    <t>Se encontró error grave, no existía el CRUD que se creía agregado en el día uno, no se podía agregar, eliminar o actualizar países en la LocalStorage, solo se puede ver los países de la API, se intentó solucionar agregándolo, pero hubieron muchos más errores, por el momento no se logró solucionar.</t>
+  </si>
+  <si>
+    <t>No se logró implementar el CRUD completo, se identificaron problemas adicionales.</t>
   </si>
 </sst>
 </file>
@@ -329,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,19 +379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +390,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8ABE9-A544-41D6-B6CF-D70E17150986}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,306 +759,306 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="12" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B9" s="10" t="s">
+      <c r="A9" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="A15" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1039,7 +1069,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>62</v>
       </c>
@@ -1048,26 +1078,114 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="18" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A17:E17"/>

--- a/Documentación PFFE/Proyecto_Final.xlsx
+++ b/Documentación PFFE/Proyecto_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\Documentación PFFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEB13AC6-2793-46E6-B347-B548B42FC1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB030B8-6498-4193-B97A-203E0194668E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{17E0DE3F-BADC-4A6D-9F3F-7D249792D3DE}"/>
   </bookViews>
@@ -203,9 +203,6 @@
     <t xml:space="preserve">fetch: </t>
   </si>
   <si>
-    <t>CRUD:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sistema de Búsqueda: </t>
   </si>
   <si>
@@ -279,6 +276,9 @@
   </si>
   <si>
     <t>No se logró implementar el CRUD completo, se identificaron problemas adicionales.</t>
+  </si>
+  <si>
+    <t>CRUD (Fallido):</t>
   </si>
 </sst>
 </file>
@@ -733,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8ABE9-A544-41D6-B6CF-D70E17150986}">
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,14 +753,14 @@
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="G1" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H1" s="9"/>
       <c r="I1" s="4"/>
@@ -796,7 +796,7 @@
         <v>46</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
@@ -822,10 +822,10 @@
         <v>49</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,10 +851,10 @@
         <v>50</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -874,16 +874,16 @@
         <v>8</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -897,13 +897,13 @@
         <v>14</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>52</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="17" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1100,16 +1100,16 @@
         <v>45493</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -1117,16 +1117,16 @@
         <v>45493</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>79</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -1134,16 +1134,16 @@
         <v>45493</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>71</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="114" customHeight="1" x14ac:dyDescent="0.25">
@@ -1151,16 +1151,16 @@
         <v>45493</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -1168,16 +1168,16 @@
         <v>45493</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/Documentación PFFE/Proyecto_Final.xlsx
+++ b/Documentación PFFE/Proyecto_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Desktop\proyecto_final\Documentación PFFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6186FB8C-338A-423D-818D-812E4CE79E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DB6F6-989F-4346-BACB-313B17D0E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{17E0DE3F-BADC-4A6D-9F3F-7D249792D3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
   <si>
     <t>Fecha</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Utilizado para hacer peticiones a la API en src/api.js y obtener los datos iniciales de los países.</t>
   </si>
   <si>
-    <t>Implementado en src/components/CountryList.jsx y src/components/CountryDetail.jsx para las operaciones de Crear, Leer, Actualizar y Eliminar datos.</t>
-  </si>
-  <si>
     <t>Implementado en src/components/CountryList.jsx para permitir la búsqueda entre los países cargados.</t>
   </si>
   <si>
@@ -203,9 +200,6 @@
     <t xml:space="preserve">fetch: </t>
   </si>
   <si>
-    <t>CRUD:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sistema de Búsqueda: </t>
   </si>
   <si>
@@ -240,13 +234,261 @@
   </si>
   <si>
     <t>src/App.jsx, src/components/Home.jsx, src/components/CountryList.jsx, src/components/CountryDetail.jsx, src/components/About.jsx</t>
+  </si>
+  <si>
+    <t>Corrección de filtro de búsqueda</t>
+  </si>
+  <si>
+    <t>Mejora en la funcionalidad del filtro de búsqueda para incluir la capital del país en el criterio de búsqueda.</t>
+  </si>
+  <si>
+    <t>La búsqueda ahora considera tanto el nombre como la capital del país.</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en CountryList</t>
+  </si>
+  <si>
+    <t>Añadido un botón para regresar a la lista de países desde la vista de detalles de país.</t>
+  </si>
+  <si>
+    <t>Facilita la navegación desde el detalle del país a la lista de países.</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en CountryDetail</t>
+  </si>
+  <si>
+    <t>Añadir botón de retroceso en NotFound</t>
+  </si>
+  <si>
+    <t>Añadido un botón para regresar a la página de inicio desde la vista de "Página No Encontrada".</t>
+  </si>
+  <si>
+    <t>Proporciona una forma de regresar a la página principal desde "No Encontrado".</t>
+  </si>
+  <si>
+    <t>Corrección de Errores</t>
+  </si>
+  <si>
+    <t>Se encontró error grave, no existía el CRUD que se creía agregado en el día uno, no se podía agregar, eliminar o actualizar países en la LocalStorage, solo se puede ver los países de la API, se intentó solucionar agregándolo, pero hubieron muchos más errores, por el momento no se logró solucionar.</t>
+  </si>
+  <si>
+    <t>No se logró implementar el CRUD completo, se identificaron problemas adicionales.</t>
+  </si>
+  <si>
+    <t>Funcionalidad de Edición</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se implementó la funcionalidad completa de edición en el componente </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>EditCountry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, permitiendo la modificación de todos los campos del país.</t>
+    </r>
+  </si>
+  <si>
+    <t>src/components/EditCountry.jsx, src/components/CountryList.jsx</t>
+  </si>
+  <si>
+    <t>La edición ahora permite cambiar todos los campos del país.</t>
+  </si>
+  <si>
+    <t>Métodos Auxiliares</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se añadieron los métodos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>getLocalCountries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>saveLocalCountries</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en el archivo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>api.js</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para manejar la obtención y almacenamiento de países en </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>localStorage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mejora en la gestión de datos locales.</t>
+  </si>
+  <si>
+    <t>Combinación de Datos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se mejoró </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>CountryList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> para combinar la lista de países obtenidos de la API con los países guardados localmente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Se muestra una lista combinada de datos.</t>
+  </si>
+  <si>
+    <t>Estilo de Botones</t>
+  </si>
+  <si>
+    <t>Se estilizó el enlace de edición para parecer un botón utilizando CSS, sin modificar el JSX.</t>
+  </si>
+  <si>
+    <t>src/styles/main.css</t>
+  </si>
+  <si>
+    <t>El enlace de edición se ve como un botón.</t>
+  </si>
+  <si>
+    <t>Corrección del CRUD</t>
+  </si>
+  <si>
+    <t>Se corrigió el CRUD que estaba marcado como intento fallido, asegurando que las operaciones de creación, lectura, actualización y eliminación funcionen correctamente.</t>
+  </si>
+  <si>
+    <t>El CRUD ahora funciona completamente.</t>
+  </si>
+  <si>
+    <t>Estilización</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se añadieron estilos detallados para cada componente en la carpeta </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>styles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, proporcionando una apariencia creativa y colorida.</t>
+    </r>
+  </si>
+  <si>
+    <t>src/styles/main.css, src/components/CountryList.css, src/components/CountryDetail.css, src/components/EditCountry.css, src/components/Home.css</t>
+  </si>
+  <si>
+    <t>Mejora en la apariencia y diseño general del proyecto.</t>
+  </si>
+  <si>
+    <t>Progreso Día 3</t>
+  </si>
+  <si>
+    <t>CRUD (Reparado):</t>
+  </si>
+  <si>
+    <t>Implementado en src/components/CountryList.jsx, src/components/CountryDetail.jsx y src/components/EditCountry.jsx para las operaciones de Crear, Leer, Actualizar y Eliminar datos.</t>
+  </si>
+  <si>
+    <t>src/components/CountryList.jsx, src/components/CountryDetail.jsx, src/components/EditCountry.jsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +528,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="3">
@@ -329,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -340,19 +587,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -363,6 +598,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -701,13 +939,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8ABE9-A544-41D6-B6CF-D70E17150986}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="14.140625" customWidth="1"/>
@@ -721,356 +959,570 @@
     <col min="11" max="11" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45" customHeight="1">
       <c r="A1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="9"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="47.25" customHeight="1">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="57" customHeight="1">
+      <c r="A3" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="60" customHeight="1">
+      <c r="A4" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:11" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="K4" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="5" spans="1:11" ht="73.5" customHeight="1">
+      <c r="A5" s="5">
         <v>45492</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J3" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K5" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="6" spans="1:11" ht="91.5" customHeight="1">
+      <c r="A6" s="5">
         <v>45492</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="49.5" customHeight="1">
+      <c r="A7" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+    </row>
+    <row r="8" spans="1:11" ht="45">
+      <c r="A8" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45">
+      <c r="A9" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="5">
         <v>45492</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45">
+      <c r="A11" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="75">
+      <c r="A13" s="5">
+        <v>45492</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    </row>
+    <row r="14" spans="1:11" ht="45">
+      <c r="A14" s="5">
         <v>45492</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30">
+      <c r="A15" s="5">
         <v>45492</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="B15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>45492</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="42" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+    <row r="18" spans="1:5" ht="39" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="105">
+      <c r="A19" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="180">
+      <c r="A20" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="90">
+      <c r="A21" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="114" customHeight="1">
+      <c r="A22" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="105">
+      <c r="A23" s="5">
+        <v>45493</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="43.5" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="36" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="90">
+      <c r="A27" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="105">
+      <c r="A28" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="75">
+      <c r="A29" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="60">
+      <c r="A30" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="105">
+      <c r="A31" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="90">
+      <c r="A32" s="5">
+        <v>45494</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A18:E18"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentación PFFE/Proyecto_Final.xlsx
+++ b/Documentación PFFE/Proyecto_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Desktop\proyecto_final\Documentación PFFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\Documentación PFFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866DB6F6-989F-4346-BACB-313B17D0E0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F94005-5ABF-4442-962F-0F2850BE6D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{17E0DE3F-BADC-4A6D-9F3F-7D249792D3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
   <si>
     <t>Fecha</t>
   </si>
@@ -482,6 +482,68 @@
   </si>
   <si>
     <t>src/components/CountryList.jsx, src/components/CountryDetail.jsx, src/components/EditCountry.jsx</t>
+  </si>
+  <si>
+    <t>Progreso Día 4</t>
+  </si>
+  <si>
+    <t>Comentarios Detallados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se añadieron comentarios detallados a los archivos de código </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>EditCountry.jsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> y </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>NotFound.jsx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, explicando cada línea del código para mejorar la comprensión.</t>
+    </r>
+  </si>
+  <si>
+    <t>Comentarios detallados añadidos para una mejor comprensión del código.</t>
+  </si>
+  <si>
+    <t>Documentación Word</t>
+  </si>
+  <si>
+    <t>Se creó un documento Word con explicaciones detalladas del código, incluyendo fragmentos específicos para ilustrar cada punto.</t>
+  </si>
+  <si>
+    <t>Documento creado para proporcionar una comprensión clara y completa del funcionamiento del código.</t>
+  </si>
+  <si>
+    <t>Todos los JS y JSX</t>
   </si>
 </sst>
 </file>
@@ -939,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8ABE9-A544-41D6-B6CF-D70E17150986}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1516,8 +1578,69 @@
         <v>99</v>
       </c>
     </row>
+    <row r="34" spans="1:5" ht="42" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:5" ht="31.5" customHeight="1">
+      <c r="A35" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="90">
+      <c r="A36" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="135">
+      <c r="A37" s="5">
+        <v>45495</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="G1:H1"/>

--- a/Documentación PFFE/Proyecto_Final.xlsx
+++ b/Documentación PFFE/Proyecto_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Documents\Documentación PFFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F94005-5ABF-4442-962F-0F2850BE6D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2EBC146-CA3B-4CB0-B519-B238AA7630C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{17E0DE3F-BADC-4A6D-9F3F-7D249792D3DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="120">
   <si>
     <t>Fecha</t>
   </si>
@@ -544,6 +544,30 @@
   </si>
   <si>
     <t>Todos los JS y JSX</t>
+  </si>
+  <si>
+    <t>Progreso Día 5</t>
+  </si>
+  <si>
+    <t>Códigos Ordenados</t>
+  </si>
+  <si>
+    <t>Se ordenaron los códigos con la extensión Prettier</t>
+  </si>
+  <si>
+    <t>Eliminación de Línea de Código Innecesaria</t>
+  </si>
+  <si>
+    <t>Se eliminó línea de código (const apiCountries = await fetchCountries();) que estaba sin uso debido a actualizaciones anteriores</t>
+  </si>
+  <si>
+    <t>src/components/EditCountry.jsx</t>
+  </si>
+  <si>
+    <t>Anten consola advertía de un riesgo, ya no lo hace después de este arreglo.</t>
+  </si>
+  <si>
+    <t>Código más ordenado, bonito y fácil de entender.</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81A8ABE9-A544-41D6-B6CF-D70E17150986}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1638,8 +1662,69 @@
         <v>110</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="15.75">
+      <c r="A39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="60">
+      <c r="A41" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="75">
+      <c r="A42" s="5">
+        <v>45496</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A39:E39"/>
     <mergeCell ref="A34:E34"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:K1"/>
